--- a/ES调优结果记录.xlsx
+++ b/ES调优结果记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>old gc 平均时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>s16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,6 +570,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ES调优结果记录.xlsx
+++ b/ES调优结果记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>old gc 平均时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>s17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -145,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -537,42 +546,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>41893</v>
       </c>
     </row>
   </sheetData>

--- a/ES调优结果记录.xlsx
+++ b/ES调优结果记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>old gc 平均时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewSize=8G</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -546,19 +554,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -566,37 +575,48 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>41893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>41894</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
